--- a/result_2.xlsx
+++ b/result_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Return Contribution (abs)" sheetId="9" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Rolling 36 Months Mean" sheetId="4" r:id="rId5"/>
     <sheet name="VIF" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -219,6 +219,6558 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Return Contribution (abs)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intercept</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$A$2:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$B$2:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00000_);_(* \(#,##0.00000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>6.3256820132356298E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1557145699214E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7677336453204702E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0786795292986901E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5938220384649199E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.11964069502839E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2315651634640098E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5554862414412201E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8709343693815099E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6793497396599997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.85315569661362E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8454678370820297E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2975668526336897E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5731461429591E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.8072226540032406E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.8089129001673196E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.3398983015992795E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.1744722553363403E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.10837149115766</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.120397440138571</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.124051882590759</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.113309230089794</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.83459176166113E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.05108647948616E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.0283139383962204E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0965139336739298E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.9196288703843806E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.8122258180293502E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.106822593376511</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.9436313885008703E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.10261438310363399</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.10427197490126899</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.159581057700769</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.198493022339299</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.21150608388992501</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.15780523250723799</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.27062526797876701</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.31037756309589598</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.30398457686720398</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.336606591453469</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.344797631864106</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.31716922898653199</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.28802917125763899</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.223762718760637</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.18085401241195401</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.187820109123328</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.19259571381446799</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.18991727976353401</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.22733897652864099</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.12615018026416799</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.14774814825054</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.144633577082045</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.10359826942343101</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.8798925532394596E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.12706278157746501</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.129961679439178</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.16294515749034899</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.3689715616099095E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.104431259217726</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.12526988090191599</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.16850860796960601</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.18042906007390899</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.6682568467592802E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.0047645351722004E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.6034325856330298E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.6035249968153698E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Return Contribution (abs)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ACWI_err</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$A$2:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$C$2:$C$67</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00000_);_(* \(#,##0.00000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>1.02858200618916E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.03330632353617E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4941984311898902E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.53791400041278E-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2107381193044E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4697445903123904E-16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.31216716266427E-15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9276482373646701E-16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0961865870129798E-15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9499292167481308E-16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7914075977201598E-16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8721616413666005E-17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7960282276968201E-15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1429900759189901E-15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5582806974336601E-16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0175011386235301E-15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5329349758504599E-16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.4559330627533703E-16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8534666825856001E-16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3746736184680199E-16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.6985384633878794E-16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.6325349313148704E-17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.4546671728201802E-16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.45678673837042E-15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8708738920939203E-16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2312104095792399E-15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.00820815898268E-16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1192704056512801E-15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.73302355173353E-15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.8001385507352102E-17</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.4047223438863104E-16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.9791714425578694E-17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.0790629225600702E-16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.11807750130424E-15</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0997037765719101E-15</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.1227986325334399E-16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.2064621059235001E-16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.78392885837951E-16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.03255383954754E-15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.23072553463552E-15</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.1061232513074203E-17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.62308015866093E-17</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.3624718814951199E-17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.3490379955254308E-16</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.2418137508389E-16</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.5450975070131495E-16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2178407925476898E-15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.2297381106712602E-15</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.8404889155347701E-17</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.5488493524916701E-15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.3239943182904699E-15</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.1142489285961701E-15</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.2904637536701399E-15</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9997075558103999E-15</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.9208321348862296E-15</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.5858850502260296E-15</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.4102627605390092E-16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.80660311371316E-15</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.0917535968275898E-15</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.5424401561575201E-14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.55111652421413E-14</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5088004260317499E-15</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.57187003464068E-15</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.20320175127666E-16</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.8865710076598794E-16</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.1714427870524903E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Return Contribution (abs)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSCI_World_err</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$A$2:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$D$2:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00000_);_(* \(#,##0.00000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>1.2075591929253599E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3438193809396997E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3301901806747199E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3662442018486898E-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2566302620393697E-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3298091544515902E-16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7877312466711102E-16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.55398540046204E-16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.06156691616044E-15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.77721957547615E-16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2545044976252502E-16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0027781871370601E-16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.52491458663138E-16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0827117314604901E-15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.87177542950704E-16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5259929094309601E-16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7902698388126199E-16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9123928663701699E-16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.81875157519407E-16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.9322010250199496E-17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.8488905071444296E-17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.7944570207066897E-16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6558862990868E-16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.8073710024850006E-17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5961442280771101E-16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.8428968548585697E-18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8920411115070904E-20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.94699793080043E-17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2017870565235601E-17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.9426862481072401E-17</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8191428130700601E-18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5621519753483201E-16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.5735154768803302E-17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.49579869722793E-16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.0301056758056504E-16</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.2230279078557504E-17</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1749091962234901E-16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2165960446066599E-16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1727364957383699E-16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.73641830420656E-16</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.2414918421528199E-16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.8352437601211699E-16</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.40258551028289E-16</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.06782262071757E-15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0725015706322601E-15</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.0967078043542899E-17</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.4034527349424001E-16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.1494920908967301E-16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.76425852170119E-16</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.6657062574125895E-16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.6913655336206099E-16</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7011141372993999E-16</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2399864620383398E-17</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.1361857631248598E-17</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.9720168138503802E-16</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.29275166029581E-18</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.7811232094218702E-17</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.2918383610193799E-16</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.2624497604582199E-16</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.6661582954456494E-17</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.0960413865715305E-17</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.6569225276107398E-17</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.0009967767067102E-19</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.7617797068431201E-17</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.4978215744732695E-17</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.2174753213670294E-18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Return Contribution (abs)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Russell_3000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$A$2:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$E$2:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00000_);_(* \(#,##0.00000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>2.5333175070613501E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29656141126069E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9585976632523299E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9127512280209001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.62933310966317E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7980567891764692E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0776170927573698E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.85775040792838E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.33278105029417E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0742093138977001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4273093892807999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4739365158665098E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9577682767124797E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1385809928281199E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.2286932402899605E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.6783173016955997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7759826459428403E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1509608414214501E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1116007809274</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9710020264666493E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.102391064828699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.1559488629070203E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9227527988095703E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.2987498526686798E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.3048400012488302E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.121429036511686</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.121369459480549</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.127415897031425</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.12602114949848001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.120042573218824</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.8758857870068303E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.1731332623029396E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6974130198935901E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5825771678021799E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7653554314699098E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.101242229859345</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.7412286488498294E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.3937145333901907E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.0894627699275101E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.3302371802451494E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.0821957415538603E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1636545490839E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.6587900855754101E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.38270378173395E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.7773953612581603E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.5075598663492699E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.0778989985545998E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.0468223207128302E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.37589369031922E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.93808718777567E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.9105669804563499E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.6352130257844697E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2838323783666499E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.5940812893294103E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.1650950579685798E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.7703634995057203E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.8450260942290799E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.26531570591741E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.6635069353143597E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.3918934071899901E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9121132932509999E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5142722104360001E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.8527325577518099E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.2625323075214998E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.1942012127893695E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.0757564379329197E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Return Contribution (abs)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>US_Dollar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$A$2:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$F$2:$F$67</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00000_);_(* \(#,##0.00000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>2.3421336082338601E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5627594184670401E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1716325214494901E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6906040787833401E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7597384466923601E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6837230784128698E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.39943359706527E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9866413058905204E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3413403503237605E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5682190946639296E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3240643240645399E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.39813651042231E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2676331150793399E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.9977745573637498E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.40117254255202E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.2788025204447507E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6557010388696107E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3414438867998002E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.4260088117795902E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1903142070531499E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8130501768887503E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.7490077501327601E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5136662356725001E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8544081918492298E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.33224080452154E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.35116938600071E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.5642254933153694E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0005237127256201E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6775637621399001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.3497766478239999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6253356298747999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.22676851131519E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2887524796205699E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.0861458822100198E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5672602033701701E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8317656002902999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.6168420231477905E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.9097066097133798E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.31205128342087E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2427221432717199E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.6690443141177802E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.6190216160327001E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.47326282674023E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.6585555962556803E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.00863929703914E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.2808747292129796E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6638367936467599E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.35800551694167E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7382286385608198E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2519072263466999E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.9892233301617201E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.4389349839354801E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.99323743990717E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.4698843555485302E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.60845689173511E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2232269627002098E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.00398033982962E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.4551579722566101E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7517308207456402E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.6152069339230407E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.1494478902594899E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.8256120443371303E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.28800329650472E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.4844739830323701E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.04048115501588E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.2660010005699099E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Return Contribution (abs)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bond_Index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$A$2:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$G$2:$G$67</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00000_);_(* \(#,##0.00000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>1.43654502431486E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.17255294596767E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.46047946409096E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.87182563117912E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2940980026831399E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.07632942854608E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2424835032104907E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.49519800113767E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.03523699424641E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7190884438687302E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5590222560497E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.60536906935181E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4634629658908902E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8431294978357301E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0850912340441199E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4710068618067401E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6394243826701799E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.40182345481774E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8780320221142301E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9669528031426801E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.9399040382876996E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4911977373573901E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.2384496616193098E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.01402147753263E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4483144128262802E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.7818553102331703E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1974983533175703E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9558724785407098E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4398040428884601E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.5560667808923102E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4281896451904001E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0335870060067901E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5217550044862201E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.3046119257520901E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0086923689397398E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.9817302200149802E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.1389522924678502E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.9822800053798595E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.4933296754223505E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.0830750714980201E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.4969849670366999E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1184470762183602E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.76382728335709E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.0722717975596298E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.6316467466503499E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.5865300647551701E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.5128173029034503E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.4984979612829703E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.46376863166316E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.0305066829588998E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.7711787223547901E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.0542051806722901E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.47017085668822E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9911074413612201E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.1731591295327601E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.24957975867768E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1726698348563699E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.1595901534920201E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.94094151675135E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.27264963513244E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.59172256833228E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.3071009386319104E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.7452875659949696E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.8441466582388902E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.4293304332226604E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.7646090472962594E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Return Contribution (abs)'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HFRI_Relative_Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$A$2:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$H$2:$H$67</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00000_);_(* \(#,##0.00000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>0.365215504938875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39716341657849402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40284583456680001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42752681845842999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41738791018128901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.426894119502021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47874164778927297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46758486467975602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.423899384843056</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47894351320906398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49998488127489199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50752057200549605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47988309151777497</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55268235192466897</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41269739907137198</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36318298986115899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.37308211083584097</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.38971421366057402</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.31914332553521602</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32084633352129499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.31368812964537202</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27124823983046598</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22734272709012401</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.27084201618165499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.275032304665001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.16268884334209099</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.0461748594173802E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12140507236682301</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.3771595280161495E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4561682151386497E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.109714762869095</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.7684173526942898E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.8923732912357902E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0601768695715901E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.4561074256586801E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.129227336229188</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.115819432482812</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.12001218080498</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.118743519522272</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.7430080174101399E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.1894520086189902E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.4110227676809501E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.72309239206843E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.113469328828741</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.13391339239837599</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.163735766911907</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.3320973614495101E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.2919271399333601E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.0871157434946501E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.12610965054355799</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.3578978004571494E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.4599113162899503E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.11691269123961499</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.104139282076293</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.1479212819336297E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.14025124034153699</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.164210742978883</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.10746278409556401</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.15421091503035</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.155012264478361</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.13567945612527499</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.112364179511261</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.9786759394221404E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.103492159795102</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.108760770607814</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.8454386726072004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Return Contribution (abs)'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HFRI_Macro_Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$A$2:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$I$2:$I$67</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00000_);_(* \(#,##0.00000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>0.15281333736813399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.121683794198819</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12398913010451799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11722265260166299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.133356753239463</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.105314745627948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9880702257977604E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.112051831326753</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.111999416778302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5590649764142499E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6518416903052603E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4571224248488899E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8077957596595799E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2589477967078601E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.8523160142188308E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.30546254082695E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0826779280016701E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8951014122475999E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.93255986122386E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0272471286161797E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.1788699603962704E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.3012266029054903E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1426424215326201E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.28009081122133E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5386080093690999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5424693297273801E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.9172038733613299E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2520006833686799E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.95949973600935E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1653196846749202E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.43384025250242E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.3518276983269099E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.5819987003934901E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.03137608147666E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2136333604279299E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.09064040250391E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.9405864901009697E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.5912840994487099E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.7276483192344298E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3872216136723001E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.20353921851324E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3416589179751E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.5095974295245502E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.6535862726074001E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.0336018544021501E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.19538005468052E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.2663065209217703E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.9464093961427498E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.0463176038416402E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5724220785106199E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2477553337439501E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.56441988105726E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.4012003447665599E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.60187615308473E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6520195994595099E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.9323286314702093E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.0779504289548104E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.27865294318308E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.6258381904939099E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9574655911008998E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0513328565470901E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.76665157845066E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.3212335908386202E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.9766905081468798E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.75224788759951E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.3426692772674701E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Return Contribution (abs)'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HFRI_ED_Distressed_Restructuring</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$A$2:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$J$2:$J$67</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00000_);_(* \(#,##0.00000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>2.3145518378991901E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.05037211206193E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.05753707872575E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9750479746997599E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.39835612339163E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4167493929868092E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5588339287752201E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.72698140264133E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9712826677594897E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4061937135791101E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4567493639831798E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9325671899405203E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5215697813365793E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3421662649420899E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3636858380834298E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16024481144154101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.139432044245273</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16886769463354301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1709049621123</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.183757076537129</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.18402434376246901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.226457015317372</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.28326358726859702</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25159956164582098</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23902345190338201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.22620129698665301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.243338392558689</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26262832299914302</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.26486088114115902</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.300943862133153</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.27658937808065398</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.318267643224805</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.30123589617471602</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.29367131576356598</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.25308534833387097</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.20944101612496999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.16036742079945801</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.14408517121900999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.15101219185937101</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.182408821962913</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.15385641209053</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.16033290620391899</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.14676826075755001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.142289458004801</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.141399189974976</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.101964223526787</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.15777066775901699</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.13959170206753899</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.12623267648575801</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.14475725587326199</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.16548729614170701</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.15943753119281701</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.158396830802114</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.16414205959981401</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.152227486247866</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.13408057079226501</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.114242054859302</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.4865816550854896E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.9190986849258895E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9790921061937397E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.9689481417336398E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5576182132035999E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.6817272026852901E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.40782282349141E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.3863593803272301E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.7894652023398798E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Return Contribution (abs)'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HFRI_EH_Equity_Market_Neutral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$A$2:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$K$2:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00000_);_(* \(#,##0.00000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>3.46142703340955E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7716896311132401E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5837545984477002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2659050726057801E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.27163902240661E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9159892216293202E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0510856255805099E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.76102917938253E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8097559682437099E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1595241874943799E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9963364763042401E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1942955468477001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6688565571708199E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8487027592085397E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1338214136062502E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5543107896405499E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.86250647047509E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.9105396153424804E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.2337719336068098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.1793950526735894E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.1358895140274694E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.00051352290983E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0753907973356599E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.6105209313255401E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1236757813033699E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.1617331454122204E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9202898041905696E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8717352221091901E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9339313011876202E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4395914752410502E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.58182561455979E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.32409240838558E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7879910804825301E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.36729982020706E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1404106549147097E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6825531961299E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1559969665547098E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.06992915288854E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.09105053152443E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.33684768299139E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.3404564646969706E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3911366210215799E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5784073408097901E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.02339835510198E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.8628149887957693E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.8882257917042997E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.4530258771504697E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.6167252770385697E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.4582216667825198E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.4658914181687203E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.12659279862255E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.33238567246406E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.9855651470652997E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3281374674533803E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.9063317813864698E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.9349355438762003E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.0698763312989397E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.143311887747506</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.15302436907953099</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.171176301314723</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.18346986284442901</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.204492205049637</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.11465687451512301</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.108459304721961</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.9773783655791606E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.109086082633524</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Return Contribution (abs)'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HFRI_RV_Fixed_Income_Convertible_Arbitrage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$A$2:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$L$2:$L$67</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00000_);_(* \(#,##0.00000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>2.3290476285248499E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8612251337860699E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.46024068936492E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6404572872036598E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.86788049457922E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5749302163321903E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.75381274249407E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3345643636812099E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3906858876950998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6050596042914298E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5416913859209501E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.38452326555887E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2083577917998603E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.4195112837116795E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15915428509794999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16132841661285</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13917994896613201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.2264878445240006E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.123775766812096</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.1042547685982203E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.9722153755691106E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8787929664680101E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4663610896625003E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3679845156641297E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5485455926511399E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4844441929071001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0547313502457001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2668290190304901E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6680853816830399E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.1786081516616997E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.3198777965155193E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.0541233435760995E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.12511657810406801</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.122494265789409</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.112133748704856</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.83220275581409E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.8993119426781202E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.32183341601228E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.2194644935037397E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.6249370271873696E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.10453137269863801</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.3774048098465304E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.0711890870017594E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.4501125402960199E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.3814999179622606E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.8213941228939104E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.3312674823693996E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.6784246842349996E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.104916051054389</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.34081399161801E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.3447156803393199E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.1954418799598901E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.0026404275091097E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.87246228869926E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.6066255530725499E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.7259607269217003E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.5473299006316498E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.6998467848290197E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.9178055893454002E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.6572153278679499E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.0176156711695301E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.8144613422552701E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.9972260725646399E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.1643191086923001E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.67299813549182E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.13134014162813E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Return Contribution (abs)'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HFRI_RV_Fixed_Income_AB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$A$2:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$M$2:$M$67</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00000_);_(* \(#,##0.00000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>0.198218989899097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19074482780891899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18072845868367199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.171583664948745</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15937511699358201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16890689008238199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.143750537367585</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12440475262548099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11287417663603801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.110868075886895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20586183216361301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.238310444425229</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.175178785146969</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14488083702851301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.6720120537137294E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.03000498177079E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8790299991270702E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3145723200466103E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1616435844464999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.79306177472532E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.449106350353E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4911109909474796E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1079688114940399E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7150329329972399E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3796073192674497E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.56200419398825E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.5622949261236795E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.0845210833517301E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5515784979884995E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.100120276958482</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.9525543197510303E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.2634446828579099E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.21129477793796E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.5725475936894203E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.52455736535826E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.4420604364734098E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.8981002931177097E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.3599274249880298E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.5779239937421407E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.10767825264079001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.118009335764049</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.131440093963202</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.144295964815502</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.154220788422749</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.14616051232373301</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.15037558933294901</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.7816222896069098E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.16591837713267E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.3292755926182498E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.14907875177823299</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.13879752684528401</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.136814587944625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.15385197040653401</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.12918899421993801</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.14303462123608099</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.16482753020968</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.179739691904753</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.215825089288848</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.203641918550754</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.21164676273404701</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.20679975833486799</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.215646873032355</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.30665118759174798</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.28089728129408198</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.27100663458782698</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.25489230833434601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Return Contribution (abs)'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HFRI_ED_Activitst_Index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$A$2:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$N$2:$N$67</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00000_);_(* \(#,##0.00000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>1.2811371955885499E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6815654396360598E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6518569172494901E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6074499612281599E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.55006441219809E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7453187797780399E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3411375232368199E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7290629627527102E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5409244914252001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.93347794512767E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.55667249152766E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8884524834364201E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8090203285802098E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.4521663957799504E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6704915948205001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.8448983289215804E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1377220500305604E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6992371381236701E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.74077895615517E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8918248807426502E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.63229298745731E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2905582795133E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0480401422196899E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5028365883044597E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9926748599669902E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5516613176329997E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.3443131201129699E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9591838482713103E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3630401311591403E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.6457773222223398E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2015364856384597E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0518177131573902E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.7283554108360502E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.1700716799996197E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.6378290588948797E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.8554667317726098E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6618290430924197E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.6379505224402697E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.5746971726079602E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.1673812040739701E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.1636743943852299E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.03090860395151E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.6322652735598697E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.6021375435167202E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.5398087451296502E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.4842772563303898E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.0855140007798198E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.20138054216583E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.0208393121557997E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5878501278810697E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.04170188997773E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.0002990800643998E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.0893235936017E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.4616639004266503E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.7959167045475697E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.32676899292401E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.20671169487686E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.7194563121863602E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.1973150868759799E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.4753035746274198E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.28452105480583E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.1149444637836199E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.3696849256564701E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.3850274010185099E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.7997847442594697E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.4262146170146397E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Return Contribution (abs)'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HFRI_Macro_multistrategy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$A$2:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$O$2:$O$67</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00000_);_(* \(#,##0.00000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>0.13548502839707299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12788592613494501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.164899299113625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16434687627821601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.167151094602734</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15590869182254199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13521114562297601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12542283873475299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12374810793711501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.110657544413002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5688869710788004E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6197811027342298E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.07262293648272E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4218500192854601E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9808413577528696E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0560322359018599E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.20446461083692E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.15782169495621E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.2346041920138101E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.1941460422774297E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.7623133142891997E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.1461523619782101E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.06281048569255E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0627845231892606E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.49412524402232E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.117548375202835</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.136554428721474</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.116903772811856</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.10021708525461299</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.114123157193831</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.125878541357414</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.13411723077872501</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.9919972654765298E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.5413839686267706E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.6072943072254501E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.3617657867779795E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0780678927060799E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.1515732442623202E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8275735007471397E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.3826647601736698E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.6088697609224205E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0994649139379502E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.9825457783446903E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.4687437350709906E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.2267228870767095E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.10738475004148</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.14920377251226299</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.184850915800088</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.161712110119557</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.13685003766128401</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.135581190151085</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.143121284332584</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.127489740540153</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.13285195973209499</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.126661014779748</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.10301138735188101</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.9722514160169298E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.5210576568968197E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.2721197346925198E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.4382607391383896E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.3012051645491599E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.2606733191746695E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.111027110254003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.8157171059617104E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.6982492050251797E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.7364465943213306E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Return Contribution (abs)'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HFRI_EH_Quant_Directional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$A$2:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Return Contribution (abs)'!$P$2:$P$67</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00000_);_(* \(#,##0.00000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>6.1759085825506804E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8857317944279903E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8713014686762099E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0258281864715195E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1535628483425802E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.70232335855179E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3122805088029901E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.19253672373723E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3514256764207901E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6107871171717399E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.85074964466455E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3818334200391102E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.06199867320415E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.09301123945953E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.8711575059848701E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0817565091190396E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.107095749920652</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10263366239259</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.7030044105841994E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.8118769610098305E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.23501792467043E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.114392533188514</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11003598665990599</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.10105740591236401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.8024951036576394E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.11326953816968199</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.5834750412149894E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.9618016136478901E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.2371666918510301E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.5425334862178995E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.127102616616558</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.109242033454689</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.12628514602035801</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.142107727497464</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.12616875913907799</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.8318097604019499E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.2895579431044601E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.6852011177334401E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.6484990773742303E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.6482020849239602E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.7568175415841198E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.8574657574907401E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.5028236573160396E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.111069610127945</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.12711934649659601</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.11835746738466101</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.16081733893517899</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.15759899021297499</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.137387618708743</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.10517933674689001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.4489513250242898E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.9184909245646903E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.7490795709098804E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.117686649880429</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.120458836162467</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.116626908387927</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.6605946220360797E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.103853931413511</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.10690898989539099</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.12915885752530401</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.137064319196079</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.12787877436318101</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.168344135751297</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.16265389564753599</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.16302917207687101</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.21519361740092299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="141878400"/>
+        <c:axId val="141879936"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="141878400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141879936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="141879936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141878400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,7 +7063,7 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3868,6 +10420,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3876,7 +10429,7 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4378,7 +10931,7 @@
         <v>2.8721965828139599E-4</v>
       </c>
       <c r="O10" s="10">
-        <v>1.6347271872804901E-2</v>
+        <v>-2.9888888888888799E-3</v>
       </c>
       <c r="P10" s="10">
         <v>5.8834818684862103E-3</v>
@@ -7243,8 +13796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7797,7 +14350,7 @@
         <v>-1.5400441626622299E-17</v>
       </c>
       <c r="O10" s="10">
-        <v>1.9335019256592601E-5</v>
+        <v>-2.9888888888888799E-3</v>
       </c>
       <c r="P10" s="10">
         <v>-1.21010106096349E-4</v>
@@ -8666,7 +15219,7 @@
         <v>-3.6015057658835502E-4</v>
       </c>
       <c r="F26" s="10">
-        <v>2.1560592094356898E-3</v>
+        <v>4.4533973747199002E-2</v>
       </c>
       <c r="G26" s="10">
         <v>-1.01358736868978E-4</v>
@@ -11010,8 +17563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11513,7 +18066,7 @@
         <v>-0.183046395172941</v>
       </c>
       <c r="O10" s="6">
-        <v>6.9397875696643402E-3</v>
+        <v>-2.9888888888888799E-3</v>
       </c>
       <c r="P10" s="6">
         <v>4.0486652597291797E-2</v>
@@ -12286,7 +18839,7 @@
         <v>-1.8688694295180401E-3</v>
       </c>
       <c r="F26" s="6">
-        <v>0.392002846102527</v>
+        <v>4.4533973747199002E-2</v>
       </c>
       <c r="G26" s="6">
         <v>-9.7632432366972194E-2</v>
@@ -14378,8 +20931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15654,7 +22207,7 @@
         <v>5.5001111111111101E-3</v>
       </c>
       <c r="F26" s="6">
-        <v>1.0381666666666599E-3</v>
+        <v>4.4533973747199002E-2</v>
       </c>
       <c r="G26" s="6">
         <v>6.6768217609731104E-2</v>
@@ -17744,10 +24297,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18216,7 +24769,7 @@
         <v>1.3890818585768301</v>
       </c>
       <c r="O10">
-        <v>1.7769567875566099</v>
+        <v>-2.9888888888888799E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -18452,6 +25005,11 @@
       </c>
       <c r="O15" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>4.4533973747199002E-2</v>
       </c>
     </row>
   </sheetData>

--- a/result_2.xlsx
+++ b/result_2.xlsx
@@ -6684,11 +6684,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141878400"/>
-        <c:axId val="141879936"/>
+        <c:axId val="121537280"/>
+        <c:axId val="121538816"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="141878400"/>
+        <c:axId val="121537280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6698,14 +6698,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141879936"/>
+        <c:crossAx val="121538816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="141879936"/>
+        <c:axId val="121538816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6716,14 +6716,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141878400"/>
+        <c:crossAx val="121537280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10429,7 +10428,7 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10745,7 +10744,7 @@
         <v>1.98696218564493E-4</v>
       </c>
       <c r="C7" s="10">
-        <v>9.6892204786357503E-2</v>
+        <v>-0.25314739764091498</v>
       </c>
       <c r="D7" s="10">
         <v>3.6059503834083802E-2</v>
@@ -11366,7 +11365,7 @@
         <v>7.9727279667038391E-3</v>
       </c>
       <c r="J19" s="10">
-        <v>0.144981529958462</v>
+        <v>5.4012021617347999E-3</v>
       </c>
       <c r="K19" s="10">
         <v>8.3689100396596605E-2</v>
@@ -13797,7 +13796,7 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14146,7 +14145,7 @@
         <v>5.1912773335687401E-4</v>
       </c>
       <c r="C7" s="10">
-        <v>-1.2430122430776699E-17</v>
+        <v>-0.25314739764091498</v>
       </c>
       <c r="D7" s="10">
         <v>-1.7910795223208999E-4</v>
@@ -14839,7 +14838,7 @@
         <v>2.6949582503560001E-5</v>
       </c>
       <c r="J19" s="10">
-        <v>1.64649823439408E-4</v>
+        <v>5.4012021617347999E-3</v>
       </c>
       <c r="K19" s="10">
         <v>-8.9797351536962603E-4</v>
@@ -17563,8 +17562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20932,7 +20931,7 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21248,7 +21247,7 @@
         <v>4.9102311722787897E-17</v>
       </c>
       <c r="C7" s="6">
-        <v>6.3E-3</v>
+        <v>-0.25314739764091498</v>
       </c>
       <c r="D7" s="6">
         <v>0.156861682271425</v>
@@ -21869,7 +21868,7 @@
         <v>3.0483921636164899E-2</v>
       </c>
       <c r="J19" s="6">
-        <v>0.142342621232521</v>
+        <v>5.4012021617347999E-3</v>
       </c>
       <c r="K19" s="6">
         <v>9.1086388888888901E-3</v>
@@ -24300,7 +24299,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24592,7 +24591,7 @@
         <v>2.4461030005064801</v>
       </c>
       <c r="C7">
-        <v>2.4172263750134899</v>
+        <v>-0.25314739764091498</v>
       </c>
       <c r="D7">
         <v>2.1392897459973801</v>
@@ -25007,7 +25006,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>5.4012021617347999E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>4.4533973747199002E-2</v>
       </c>
